--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcdik\Downloads\Veda2.0\Veda\Veda_models\Demo_models\DemoS_016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5720F77E-79AA-4CE6-8084-CF6D51EE07D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB859C4F-20A8-4E36-9E11-AA584B9C43D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -582,772 +582,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>102885</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07C2BE8-E776-4B61-A0F6-EBD2644F7F21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="161925" y="1485900"/>
-          <a:ext cx="4038600" cy="1207785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~BookRegions_Map </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the workbook name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (cells B5 and B6);</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> the name must be the same for each base year template workbook  VT_REG1_&lt;sector&gt;_&lt;version&gt; (for REG1);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- the list of region names (cell E5,6,,...) maps the names used in the B-Y templates to the model regions:  in this case REG1 and REG2.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41203A11-BE82-497E-93D4-0DA427DADE48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277224" y="561975"/>
-          <a:ext cx="3333750" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~TimeSlices</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- the time-slices resolution for the model, by declaring the elements of each time-slice. In the column-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SEASON</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>WEEKLY </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DAYNITE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1904</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0757A778-39A5-4E2B-BD53-CA9CC2B000C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914899" y="666749"/>
-          <a:ext cx="6524626" cy="1905001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~StartYear</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the start year of the model (2005);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~ActivePDef</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the set of active periods. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alternate period definitions can be made and the active one is declared under the tag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ~ActiveDef</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~TimePeriods</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the time horizon of the model for the ActivePdef.  In</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> this example two period definitions (Pdef-1 and Pdef-5)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- For Pdef-1 the number of years </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for the start year (first period is 1 year long), the second period has 2 years</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1727,459 +961,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31114</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3179</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>102664</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424726EA-3FC2-4657-AADD-A5A27AA3B661}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5717539" y="841379"/>
-          <a:ext cx="6167550" cy="2530471"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~TFM_INS </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(transformation insert table</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> to assign an absolute value for parameters that are based on rules.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ATTRIBUTE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, a reserved word indicating that a VEDA-TIMES parameter names appear in this column; in this example these parameters are G_DYEAR (discounting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> year), </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DISCOUNT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (overall discount rate) and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>YRFR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (fraction of year for season and dayniote level. There</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> are four timeslice because it is the combination of the seasonal timeslice with the daynite timeslice)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TIMESLICE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> indicating the particular time-slice for which data is provided.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>For more information see Transformation tables, Insert Value section at www.kanors.com/vedasupport.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The full description of the time-slices is given in paragraph 3.2.1.1.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>For more details see www.kanors-emr.com/vedasupport</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  in "templates basic"or the getting started with VEDA-TIMES from pag.22</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2928,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3108,8 +1890,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3118,7 +1899,7 @@
   <dimension ref="B3:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3202,7 +1983,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3370,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:I113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4838,7 +3618,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcdik\Downloads\Veda2.0\Veda\Veda_models\Demo_models\DemoS_016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB859C4F-20A8-4E36-9E11-AA584B9C43D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA80F7-D03C-4F15-8E42-CF8F448AC97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -53,327 +53,265 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>~BookRegions_Map</t>
+  </si>
+  <si>
+    <t>~TimePeriods</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>DayNite</t>
+  </si>
+  <si>
+    <t>BookName</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>~StartYear</t>
+  </si>
+  <si>
+    <t>~ActivePDef</t>
+  </si>
+  <si>
+    <t>Pdef-1</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>* Define constants for the model</t>
+  </si>
+  <si>
+    <t>~Currencies</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>~DefUnits</t>
+  </si>
+  <si>
+    <t>Process_ActUnit</t>
+  </si>
+  <si>
+    <t>Process_CapUnit</t>
+  </si>
+  <si>
+    <t>Commodity_Unit</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>YRFR</t>
+  </si>
+  <si>
+    <t>G_DYEAR</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Pdef-5</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>MEuro05</t>
+  </si>
+  <si>
+    <t>~TFM_MIG</t>
+  </si>
+  <si>
+    <t>Year2</t>
+  </si>
+  <si>
+    <t>~UnitConversion</t>
+  </si>
+  <si>
+    <t>from_unit</t>
+  </si>
+  <si>
+    <t>to_unit</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>QBtu</t>
+  </si>
+  <si>
+    <t>Billion Kwh</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>B Euro</t>
+  </si>
+  <si>
+    <t>M Euro</t>
+  </si>
+  <si>
+    <t>TBtu</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>mtoe</t>
+  </si>
+  <si>
+    <t>Gwh</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>bEur</t>
+  </si>
+  <si>
+    <t>mEur</t>
+  </si>
+  <si>
+    <t>Eur per bbl</t>
+  </si>
+  <si>
+    <t>Eur per GJ</t>
+  </si>
+  <si>
+    <t>Eur per ton</t>
+  </si>
+  <si>
+    <t>mEur per kt</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>bcm</t>
+  </si>
+  <si>
+    <t>mbpd</t>
+  </si>
+  <si>
+    <t>Cents per Kwh</t>
+  </si>
+  <si>
+    <t>Twh</t>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Tja</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>*Set a default price or apply a factor for those IMPorts with "Z" in the name.</t>
+  </si>
+  <si>
+    <t>Dummy Imp Prices</t>
+  </si>
   <si>
     <t>~TFM_UPD</t>
   </si>
   <si>
+    <t>Pset_Set</t>
+  </si>
+  <si>
+    <t>ACTCOST</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
     <t>IMP*Z</t>
   </si>
   <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
-    <t>ACTCOST</t>
-  </si>
-  <si>
     <t>IMPDEMZ</t>
   </si>
   <si>
-    <t>~BookRegions_Map</t>
-  </si>
-  <si>
-    <t>~TimePeriods</t>
-  </si>
-  <si>
-    <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>DayNite</t>
-  </si>
-  <si>
-    <t>BookName</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>IRE</t>
-  </si>
-  <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>LimType</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>Pset_Set</t>
-  </si>
-  <si>
-    <t>Pset_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Option</t>
-  </si>
-  <si>
-    <t>~StartYear</t>
-  </si>
-  <si>
-    <t>~ActivePDef</t>
-  </si>
-  <si>
-    <t>Pdef-1</t>
-  </si>
-  <si>
-    <t>Dummy Imp Prices</t>
-  </si>
-  <si>
-    <t>*Set a default price or apply a factor for those IMPorts with "Z" in the name.</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>* Define constants for the model</t>
-  </si>
-  <si>
-    <t>~Currencies</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>~DefUnits</t>
-  </si>
-  <si>
-    <t>Process_ActUnit</t>
-  </si>
-  <si>
-    <t>Process_CapUnit</t>
-  </si>
-  <si>
-    <t>Commodity_Unit</t>
-  </si>
-  <si>
-    <t>REG1</t>
-  </si>
-  <si>
-    <t>YRFR</t>
-  </si>
-  <si>
-    <t>G_DYEAR</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Pdef-5</t>
-  </si>
-  <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>MEuro05</t>
-  </si>
-  <si>
-    <t>PRC_TSL</t>
+    <t>CTSLvl</t>
   </si>
   <si>
     <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>~TFM_MIG</t>
-  </si>
-  <si>
-    <t>Year2</t>
-  </si>
-  <si>
-    <t>~TFM_INS-txt</t>
-  </si>
-  <si>
-    <t>~UnitConversion</t>
-  </si>
-  <si>
-    <t>from_unit</t>
-  </si>
-  <si>
-    <t>to_unit</t>
-  </si>
-  <si>
-    <t>multiplier</t>
-  </si>
-  <si>
-    <t>QBtu</t>
-  </si>
-  <si>
-    <t>Billion Kwh</t>
-  </si>
-  <si>
-    <t>Mt</t>
-  </si>
-  <si>
-    <t>Kt</t>
-  </si>
-  <si>
-    <t>B Euro</t>
-  </si>
-  <si>
-    <t>M Euro</t>
-  </si>
-  <si>
-    <t>TBtu</t>
-  </si>
-  <si>
-    <t>ktoe</t>
-  </si>
-  <si>
-    <t>mtoe</t>
-  </si>
-  <si>
-    <t>Gwh</t>
-  </si>
-  <si>
-    <t>Gt</t>
-  </si>
-  <si>
-    <t>bEur</t>
-  </si>
-  <si>
-    <t>mEur</t>
-  </si>
-  <si>
-    <t>Eur per bbl</t>
-  </si>
-  <si>
-    <t>Eur per GJ</t>
-  </si>
-  <si>
-    <t>Eur per ton</t>
-  </si>
-  <si>
-    <t>mEur per kt</t>
-  </si>
-  <si>
-    <t>EJ</t>
-  </si>
-  <si>
-    <t>bcm</t>
-  </si>
-  <si>
-    <t>mbpd</t>
-  </si>
-  <si>
-    <t>Cents per Kwh</t>
-  </si>
-  <si>
-    <t>Twh</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>Tja</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -421,20 +359,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,12 +399,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF80"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,6 +412,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,14 +480,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -545,23 +496,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Migliaia_tab emissioni" xfId="5" xr:uid="{4BB61C34-7136-47AD-9DFD-25095D563AA0}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1708,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J28"/>
+  <dimension ref="B3:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1723,166 +1681,325 @@
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="13" t="str">
+        <f>CONCATENATE($L$5,M5)</f>
+        <v>D1</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="13" t="str">
+        <f t="shared" ref="J6:J28" si="0">CONCATENATE($L$5,M6)</f>
+        <v>D2</v>
+      </c>
+      <c r="M6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D3</v>
+      </c>
+      <c r="M7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="M8" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D5</v>
+      </c>
+      <c r="M9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D6</v>
+      </c>
+      <c r="M10" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D7</v>
+      </c>
+      <c r="M11" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D8</v>
+      </c>
+      <c r="M12" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D9</v>
+      </c>
+      <c r="M13" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D10</v>
+      </c>
+      <c r="M14" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D11</v>
+      </c>
+      <c r="M15" s="13">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D12</v>
+      </c>
+      <c r="M16" s="13">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D13</v>
+      </c>
+      <c r="M17" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D14</v>
+      </c>
+      <c r="M18" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D15</v>
+      </c>
+      <c r="M19" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D16</v>
+      </c>
+      <c r="M20" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D17</v>
+      </c>
+      <c r="M21" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D18</v>
+      </c>
+      <c r="M22" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D19</v>
+      </c>
+      <c r="M23" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D20</v>
+      </c>
+      <c r="M24" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D21</v>
+      </c>
+      <c r="M25" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D22</v>
+      </c>
+      <c r="M26" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D23</v>
+      </c>
+      <c r="M27" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="J28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>D24</v>
+      </c>
+      <c r="M28" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="10:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M36" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M37" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M39" s="13">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J8" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J9" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J10" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J11" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J12" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J13" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J14" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J15" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J16" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J17" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J18" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J19" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J20" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J21" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J22" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J23" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J24" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J26" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J27" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J28" s="14" t="s">
-        <v>103</v>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="13">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1898,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1912,8 +2029,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>22</v>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -1922,59 +2039,59 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>23</v>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
-        <v>6</v>
+      <c r="B11" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>43</v>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>1</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12">
         <v>5</v>
       </c>
     </row>
@@ -1988,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:F40"/>
+  <dimension ref="B3:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2009,32 +2126,32 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2044,97 +2161,78 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
+      <c r="D32" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="19">
         <v>2222</v>
       </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
+      <c r="D33" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="19">
         <v>8888</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1</v>
+      <c r="D34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2150,75 +2248,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="12.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="12.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>14</v>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8">
         <v>2021</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="str">
+      <c r="B9" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J5)</f>
-        <v>SA</v>
+        <v>SD1</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <f>(4/12)*(1/24)</f>
@@ -2226,13 +2324,13 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J6)</f>
-        <v>SB</v>
+        <v>SD2</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:E73" si="0">(4/12)*(1/24)</f>
@@ -2240,13 +2338,13 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J7)</f>
-        <v>SC</v>
+        <v>SD3</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -2254,13 +2352,13 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J8)</f>
-        <v>SD</v>
+        <v>SD4</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -2268,13 +2366,13 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J9)</f>
-        <v>SE</v>
+        <v>SD5</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -2282,13 +2380,13 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J10)</f>
-        <v>SF</v>
+        <v>SD6</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -2296,13 +2394,13 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J11)</f>
-        <v>SG</v>
+        <v>SD7</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -2310,13 +2408,13 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J12)</f>
-        <v>SH</v>
+        <v>SD8</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -2324,13 +2422,13 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J13)</f>
-        <v>SI</v>
+        <v>SD9</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -2338,13 +2436,13 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J14)</f>
-        <v>SJ</v>
+        <v>SD10</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -2352,13 +2450,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J15)</f>
-        <v>SK</v>
+        <v>SD11</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -2366,13 +2464,13 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J16)</f>
-        <v>SL</v>
+        <v>SD12</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -2380,13 +2478,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J17)</f>
-        <v>SM</v>
+        <v>SD13</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -2394,13 +2492,13 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="str">
+      <c r="B22" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J18)</f>
-        <v>SN</v>
+        <v>SD14</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -2408,13 +2506,13 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J19)</f>
-        <v>SO</v>
+        <v>SD15</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -2422,13 +2520,13 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="str">
+      <c r="B24" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J20)</f>
-        <v>SP</v>
+        <v>SD16</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -2436,13 +2534,13 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="str">
+      <c r="B25" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J21)</f>
-        <v>SQ</v>
+        <v>SD17</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -2450,13 +2548,13 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="str">
+      <c r="B26" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J22)</f>
-        <v>SR</v>
+        <v>SD18</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -2464,13 +2562,13 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="str">
+      <c r="B27" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J23)</f>
-        <v>SS</v>
+        <v>SD19</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
@@ -2478,13 +2576,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="str">
+      <c r="B28" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J24)</f>
-        <v>ST</v>
+        <v>SD20</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
@@ -2492,13 +2590,13 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="str">
+      <c r="B29" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J25)</f>
-        <v>SU</v>
+        <v>SD21</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -2506,13 +2604,13 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="str">
+      <c r="B30" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J26)</f>
-        <v>SV</v>
+        <v>SD22</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -2520,13 +2618,13 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="str">
+      <c r="B31" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J27)</f>
-        <v>SW</v>
+        <v>SD23</v>
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
@@ -2534,444 +2632,470 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="str">
+      <c r="B32" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$5,'Region-Time Slices'!J28)</f>
-        <v>SX</v>
+        <v>SD24</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="14" t="str">
+      <c r="B33" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J5)</f>
-        <v>WA</v>
+        <v>WD1</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="14" t="str">
+      <c r="B34" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J6)</f>
-        <v>WB</v>
+        <v>WD2</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="14" t="str">
+      <c r="B35" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J7)</f>
-        <v>WC</v>
+        <v>WD3</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="14" t="str">
+      <c r="B36" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J8)</f>
-        <v>WD</v>
+        <v>WD4</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="14" t="str">
+      <c r="B37" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J9)</f>
-        <v>WE</v>
+        <v>WD5</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="14" t="str">
+      <c r="B38" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J10)</f>
-        <v>WF</v>
+        <v>WD6</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="14" t="str">
+      <c r="B39" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J11)</f>
-        <v>WG</v>
+        <v>WD7</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="14" t="str">
+      <c r="B40" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J12)</f>
-        <v>WH</v>
+        <v>WD8</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="14" t="str">
+      <c r="B41" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J13)</f>
-        <v>WI</v>
+        <v>WD9</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="14" t="str">
+      <c r="B42" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J14)</f>
-        <v>WJ</v>
+        <v>WD10</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43" s="14" t="str">
+      <c r="B43" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J15)</f>
-        <v>WK</v>
+        <v>WD11</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44"/>
-      <c r="B44" s="14" t="str">
+      <c r="B44" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J16)</f>
-        <v>WL</v>
+        <v>WD12</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45"/>
-      <c r="B45" s="14" t="str">
+      <c r="B45" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J17)</f>
-        <v>WM</v>
+        <v>WD13</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="14" t="str">
+      <c r="B46" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J18)</f>
-        <v>WN</v>
+        <v>WD14</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="B47" s="14" t="str">
+      <c r="B47" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J19)</f>
-        <v>WO</v>
+        <v>WD15</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48"/>
-      <c r="B48" s="14" t="str">
+      <c r="B48" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J20)</f>
-        <v>WP</v>
+        <v>WD16</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49"/>
-      <c r="B49" s="14" t="str">
+      <c r="B49" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J21)</f>
-        <v>WQ</v>
+        <v>WD17</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50"/>
-      <c r="B50" s="14" t="str">
+      <c r="B50" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J22)</f>
-        <v>WR</v>
+        <v>WD18</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51"/>
-      <c r="B51" s="14" t="str">
+      <c r="B51" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J23)</f>
-        <v>WS</v>
+        <v>WD19</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52"/>
-      <c r="B52" s="14" t="str">
+      <c r="B52" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J24)</f>
-        <v>WT</v>
+        <v>WD20</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53"/>
-      <c r="B53" s="14" t="str">
+      <c r="B53" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J25)</f>
-        <v>WU</v>
+        <v>WD21</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54"/>
-      <c r="B54" s="14" t="str">
+      <c r="B54" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J26)</f>
-        <v>WV</v>
+        <v>WD22</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55"/>
-      <c r="B55" s="14" t="str">
+      <c r="B55" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J27)</f>
-        <v>WW</v>
+        <v>WD23</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56"/>
-      <c r="B56" s="14" t="str">
+      <c r="B56" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$6,'Region-Time Slices'!J28)</f>
-        <v>WX</v>
+        <v>WD24</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57"/>
-      <c r="B57" s="14" t="str">
+      <c r="B57" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J5)</f>
-        <v>IA</v>
+        <v>ID1</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58"/>
-      <c r="B58" s="14" t="str">
+      <c r="B58" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J6)</f>
-        <v>IB</v>
+        <v>ID2</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59"/>
-      <c r="B59" s="14" t="str">
+      <c r="B59" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J7)</f>
-        <v>IC</v>
+        <v>ID3</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
@@ -2979,15 +3103,15 @@
       </c>
       <c r="F59"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60"/>
-      <c r="B60" s="14" t="str">
+      <c r="B60" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J8)</f>
-        <v>ID</v>
+        <v>ID4</v>
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
@@ -2995,15 +3119,15 @@
       </c>
       <c r="F60"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61"/>
-      <c r="B61" s="14" t="str">
+      <c r="B61" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J9)</f>
-        <v>IE</v>
+        <v>ID5</v>
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
@@ -3011,15 +3135,15 @@
       </c>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62"/>
-      <c r="B62" s="14" t="str">
+      <c r="B62" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J10)</f>
-        <v>IF</v>
+        <v>ID6</v>
       </c>
       <c r="C62"/>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
@@ -3027,15 +3151,15 @@
       </c>
       <c r="F62"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63"/>
-      <c r="B63" s="14" t="str">
+      <c r="B63" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J11)</f>
-        <v>IG</v>
+        <v>ID7</v>
       </c>
       <c r="C63"/>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
@@ -3043,15 +3167,15 @@
       </c>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64"/>
-      <c r="B64" s="14" t="str">
+      <c r="B64" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J12)</f>
-        <v>IH</v>
+        <v>ID8</v>
       </c>
       <c r="C64"/>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
@@ -3061,13 +3185,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65"/>
-      <c r="B65" s="14" t="str">
+      <c r="B65" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J13)</f>
-        <v>II</v>
+        <v>ID9</v>
       </c>
       <c r="C65"/>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
@@ -3077,13 +3201,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66"/>
-      <c r="B66" s="14" t="str">
+      <c r="B66" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J14)</f>
-        <v>IJ</v>
+        <v>ID10</v>
       </c>
       <c r="C66"/>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
@@ -3093,13 +3217,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="B67" s="14" t="str">
+      <c r="B67" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J15)</f>
-        <v>IK</v>
+        <v>ID11</v>
       </c>
       <c r="C67"/>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
@@ -3109,13 +3233,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68" s="14" t="str">
+      <c r="B68" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J16)</f>
-        <v>IL</v>
+        <v>ID12</v>
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E68">
         <f t="shared" si="0"/>
@@ -3125,13 +3249,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69"/>
-      <c r="B69" s="14" t="str">
+      <c r="B69" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J17)</f>
-        <v>IM</v>
+        <v>ID13</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E69">
         <f t="shared" si="0"/>
@@ -3141,13 +3265,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70" s="14" t="str">
+      <c r="B70" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J18)</f>
-        <v>IN</v>
+        <v>ID14</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E70">
         <f t="shared" si="0"/>
@@ -3157,13 +3281,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="B71" s="14" t="str">
+      <c r="B71" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J19)</f>
-        <v>IO</v>
+        <v>ID15</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E71">
         <f t="shared" si="0"/>
@@ -3173,13 +3297,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72"/>
-      <c r="B72" s="14" t="str">
+      <c r="B72" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J20)</f>
-        <v>IP</v>
+        <v>ID16</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E72">
         <f t="shared" si="0"/>
@@ -3189,13 +3313,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73"/>
-      <c r="B73" s="14" t="str">
+      <c r="B73" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J21)</f>
-        <v>IQ</v>
+        <v>ID17</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E73">
         <f t="shared" si="0"/>
@@ -3205,13 +3329,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74"/>
-      <c r="B74" s="14" t="str">
+      <c r="B74" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J22)</f>
-        <v>IR</v>
+        <v>ID18</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E74">
         <f t="shared" ref="E74:E80" si="1">(4/12)*(1/24)</f>
@@ -3221,13 +3345,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75"/>
-      <c r="B75" s="14" t="str">
+      <c r="B75" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J23)</f>
-        <v>IS</v>
+        <v>ID19</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
@@ -3237,13 +3361,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76"/>
-      <c r="B76" s="14" t="str">
+      <c r="B76" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J24)</f>
-        <v>IT</v>
+        <v>ID20</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
@@ -3253,13 +3377,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="B77" s="14" t="str">
+      <c r="B77" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J25)</f>
-        <v>IU</v>
+        <v>ID21</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
@@ -3269,13 +3393,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78"/>
-      <c r="B78" s="14" t="str">
+      <c r="B78" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J26)</f>
-        <v>IV</v>
+        <v>ID22</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
@@ -3285,13 +3409,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79"/>
-      <c r="B79" s="14" t="str">
+      <c r="B79" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J27)</f>
-        <v>IW</v>
+        <v>ID23</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
@@ -3301,13 +3425,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80"/>
-      <c r="B80" s="14" t="str">
+      <c r="B80" s="13" t="str">
         <f>CONCATENATE('Region-Time Slices'!$H$7,'Region-Time Slices'!J28)</f>
-        <v>IX</v>
+        <v>ID24</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
@@ -3625,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3640,284 +3764,284 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>40</v>
+      <c r="F3" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
-        <v>47</v>
+      <c r="B4" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>84</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>82</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="17">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16">
         <v>1055.55</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="17">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16">
         <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="17">
+        <v>48</v>
+      </c>
+      <c r="D14" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="17">
+        <v>50</v>
+      </c>
+      <c r="D15" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="17">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16">
         <v>1.05555</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="17">
+        <v>30</v>
+      </c>
+      <c r="D17" s="16">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="17">
+        <v>30</v>
+      </c>
+      <c r="D18" s="16">
         <v>41.868000000000002</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="18">
+        <v>30</v>
+      </c>
+      <c r="D19" s="17">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="17">
+        <v>48</v>
+      </c>
+      <c r="D20" s="16">
         <v>1000000</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="17">
+        <v>57</v>
+      </c>
+      <c r="D21" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="17">
+        <v>59</v>
+      </c>
+      <c r="D22" s="16">
         <v>0.15384600000000001</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="17">
+        <v>61</v>
+      </c>
+      <c r="D23" s="16">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="17">
+        <v>30</v>
+      </c>
+      <c r="D24" s="16">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="17">
+        <v>30</v>
+      </c>
+      <c r="D25" s="16">
         <v>37.681199999999997</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="17">
+        <v>30</v>
+      </c>
+      <c r="D26" s="16">
         <v>2299</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="17">
+        <v>59</v>
+      </c>
+      <c r="D27" s="16">
         <v>2.7777769999999999</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="17">
+        <v>30</v>
+      </c>
+      <c r="D28" s="16">
         <v>3.6</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="17">
+        <v>30</v>
+      </c>
+      <c r="D29" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="19">
+      <c r="B30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="18">
         <v>1E-3</v>
       </c>
     </row>
